--- a/src/main/uploads/77XXXXXXXX_XXXXXX_XXXXXXXXXXXXX_171209_755928.xlsx
+++ b/src/main/uploads/77XXXXXXXX_XXXXXX_XXXXXXXXXXXXX_171209_755928.xlsx
@@ -90,15 +90,6 @@
     <t>1XXXXXXX</t>
   </si>
   <si>
-    <t>543210XXXXXX1500</t>
-  </si>
-  <si>
-    <t>598765XXXXXX8792</t>
-  </si>
-  <si>
-    <t>522333XXXXXX0033</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -109,6 +100,15 @@
   </si>
   <si>
     <t>78</t>
+  </si>
+  <si>
+    <t>5432100000001500</t>
+  </si>
+  <si>
+    <t>5987650000008792</t>
+  </si>
+  <si>
+    <t>5223330000000033</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="4" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>22</v>
@@ -699,10 +699,10 @@
         <v>4303.43</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>12</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="5" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>22</v>
@@ -734,10 +734,10 @@
         <v>-1539.8</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>13</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="6" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -769,10 +769,10 @@
         <v>-2262.1999999999998</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>14</v>
